--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Notch1</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H2">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I2">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J2">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>908.163370860157</v>
+        <v>1266.49456535948</v>
       </c>
       <c r="R2">
-        <v>908.163370860157</v>
+        <v>11398.45108823532</v>
       </c>
       <c r="S2">
-        <v>0.2895407589169869</v>
+        <v>0.3029805743736583</v>
       </c>
       <c r="T2">
-        <v>0.2895407589169869</v>
+        <v>0.3029805743736581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H3">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I3">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J3">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>141.0564001353763</v>
+        <v>160.4465551364681</v>
       </c>
       <c r="R3">
-        <v>141.0564001353763</v>
+        <v>1444.018996228213</v>
       </c>
       <c r="S3">
-        <v>0.04497161904538428</v>
+        <v>0.03838325940050435</v>
       </c>
       <c r="T3">
-        <v>0.04497161904538428</v>
+        <v>0.03838325940050435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H4">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I4">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J4">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>295.1776203746141</v>
+        <v>397.687014324295</v>
       </c>
       <c r="R4">
-        <v>295.1776203746141</v>
+        <v>3579.183128918655</v>
       </c>
       <c r="S4">
-        <v>0.09410856566217581</v>
+        <v>0.0951377473828481</v>
       </c>
       <c r="T4">
-        <v>0.09410856566217581</v>
+        <v>0.09513774738284807</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H5">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I5">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J5">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>385.578271329191</v>
+        <v>447.45867466239</v>
       </c>
       <c r="R5">
-        <v>385.578271329191</v>
+        <v>4027.12807196151</v>
       </c>
       <c r="S5">
-        <v>0.1229301124497178</v>
+        <v>0.1070445069136215</v>
       </c>
       <c r="T5">
-        <v>0.1229301124497178</v>
+        <v>0.1070445069136214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H6">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I6">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J6">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>656.4544857841599</v>
+        <v>800.6568653959995</v>
       </c>
       <c r="R6">
-        <v>656.4544857841599</v>
+        <v>7205.911788563996</v>
       </c>
       <c r="S6">
-        <v>0.2092909008523246</v>
+        <v>0.1915392956187209</v>
       </c>
       <c r="T6">
-        <v>0.2092909008523246</v>
+        <v>0.1915392956187208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H7">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I7">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J7">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>689.9861277603998</v>
+        <v>922.0912806353355</v>
       </c>
       <c r="R7">
-        <v>689.9861277603998</v>
+        <v>8298.821525718018</v>
       </c>
       <c r="S7">
-        <v>0.2199814631201439</v>
+        <v>0.2205897707524221</v>
       </c>
       <c r="T7">
-        <v>0.2199814631201439</v>
+        <v>0.220589770752422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H8">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I8">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J8">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>9.697019265956058</v>
+        <v>7.808023075623556</v>
       </c>
       <c r="R8">
-        <v>9.697019265956058</v>
+        <v>70.27220768061201</v>
       </c>
       <c r="S8">
-        <v>0.003091604889149289</v>
+        <v>0.001867895355321744</v>
       </c>
       <c r="T8">
-        <v>0.003091604889149289</v>
+        <v>0.001867895355321743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H9">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I9">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J9">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>1.506146001466266</v>
+        <v>0.989163664160111</v>
       </c>
       <c r="R9">
-        <v>1.506146001466266</v>
+        <v>8.902472977440999</v>
       </c>
       <c r="S9">
-        <v>0.0004801896556247245</v>
+        <v>0.0002366353423962125</v>
       </c>
       <c r="T9">
-        <v>0.0004801896556247245</v>
+        <v>0.0002366353423962125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H10">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I10">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J10">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>3.151793128300979</v>
+        <v>2.451766844999111</v>
       </c>
       <c r="R10">
-        <v>3.151793128300979</v>
+        <v>22.065901604992</v>
       </c>
       <c r="S10">
-        <v>0.00100485507740009</v>
+        <v>0.0005865305286306355</v>
       </c>
       <c r="T10">
-        <v>0.00100485507740009</v>
+        <v>0.0005865305286306354</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H11">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I11">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J11">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>4.117056518225221</v>
+        <v>2.75861243523</v>
       </c>
       <c r="R11">
-        <v>4.117056518225221</v>
+        <v>24.82751191707</v>
       </c>
       <c r="S11">
-        <v>0.001312600471501086</v>
+        <v>0.000659936491605132</v>
       </c>
       <c r="T11">
-        <v>0.001312600471501086</v>
+        <v>0.0006599364916051318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H12">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I12">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J12">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>7.009368578522517</v>
+        <v>4.936102729263556</v>
       </c>
       <c r="R12">
-        <v>7.009368578522517</v>
+        <v>44.424924563372</v>
       </c>
       <c r="S12">
-        <v>0.002234727762508275</v>
+        <v>0.00118085247342152</v>
       </c>
       <c r="T12">
-        <v>0.002234727762508275</v>
+        <v>0.00118085247342152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H13">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I13">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J13">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N13">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q13">
-        <v>7.367406557916874</v>
+        <v>5.684753961015556</v>
       </c>
       <c r="R13">
-        <v>7.367406557916874</v>
+        <v>51.16278564914</v>
       </c>
       <c r="S13">
-        <v>0.002348877475655987</v>
+        <v>0.001359950581226969</v>
       </c>
       <c r="T13">
-        <v>0.002348877475655987</v>
+        <v>0.001359950581226968</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H14">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I14">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J14">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N14">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O14">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P14">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q14">
-        <v>8.058946931403195</v>
+        <v>14.45798260423378</v>
       </c>
       <c r="R14">
-        <v>8.058946931403195</v>
+        <v>130.121843438104</v>
       </c>
       <c r="S14">
-        <v>0.002569354463591893</v>
+        <v>0.003458749838750204</v>
       </c>
       <c r="T14">
-        <v>0.002569354463591893</v>
+        <v>0.003458749838750202</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H15">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I15">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J15">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N15">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q15">
-        <v>1.2517197670603</v>
+        <v>1.831617415913555</v>
       </c>
       <c r="R15">
-        <v>1.2517197670603</v>
+        <v>16.484556743222</v>
       </c>
       <c r="S15">
-        <v>0.0003990734519085122</v>
+        <v>0.0004381736107558979</v>
       </c>
       <c r="T15">
-        <v>0.0003990734519085122</v>
+        <v>0.0004381736107558978</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H16">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I16">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J16">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N16">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q16">
-        <v>2.619375383620482</v>
+        <v>4.539894676451555</v>
       </c>
       <c r="R16">
-        <v>2.619375383620482</v>
+        <v>40.859052088064</v>
       </c>
       <c r="S16">
-        <v>0.0008351095857825918</v>
+        <v>0.001086068534590818</v>
       </c>
       <c r="T16">
-        <v>0.0008351095857825918</v>
+        <v>0.001086068534590818</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H17">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I17">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J17">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N17">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q17">
-        <v>3.421581321432327</v>
+        <v>5.10807540066</v>
       </c>
       <c r="R17">
-        <v>3.421581321432327</v>
+        <v>45.97267860594</v>
       </c>
       <c r="S17">
-        <v>0.001090868982708898</v>
+        <v>0.001221993099036031</v>
       </c>
       <c r="T17">
-        <v>0.001090868982708898</v>
+        <v>0.00122199309903603</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H18">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I18">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J18">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N18">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q18">
-        <v>5.825308566238956</v>
+        <v>9.140096885113778</v>
       </c>
       <c r="R18">
-        <v>5.825308566238956</v>
+        <v>82.26087196602401</v>
       </c>
       <c r="S18">
-        <v>0.001857225602037821</v>
+        <v>0.002186564301045091</v>
       </c>
       <c r="T18">
-        <v>0.001857225602037821</v>
+        <v>0.002186564301045091</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3203553333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.961066</v>
+      </c>
+      <c r="I19">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="J19">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N19">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P19">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q19">
+        <v>10.52636154909778</v>
+      </c>
+      <c r="R19">
+        <v>94.73725394187998</v>
+      </c>
+      <c r="S19">
+        <v>0.002518197199926551</v>
+      </c>
+      <c r="T19">
+        <v>0.00251819719992655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.213859</v>
+      </c>
+      <c r="I20">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J20">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>45.13108133333333</v>
+      </c>
+      <c r="N20">
+        <v>135.393244</v>
+      </c>
+      <c r="O20">
+        <v>0.3170330137447531</v>
+      </c>
+      <c r="P20">
+        <v>0.317033013744753</v>
+      </c>
+      <c r="Q20">
+        <v>18.26092308539955</v>
+      </c>
+      <c r="R20">
+        <v>164.348307768596</v>
+      </c>
+      <c r="S20">
+        <v>0.004368518520596384</v>
+      </c>
+      <c r="T20">
+        <v>0.004368518520596381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.213859</v>
+      </c>
+      <c r="I21">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J21">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N21">
+        <v>17.152367</v>
+      </c>
+      <c r="O21">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="P21">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="Q21">
+        <v>2.313395006028111</v>
+      </c>
+      <c r="R21">
+        <v>20.820555054253</v>
+      </c>
+      <c r="S21">
+        <v>0.0005534281526747834</v>
+      </c>
+      <c r="T21">
+        <v>0.0005534281526747833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.213859</v>
+      </c>
+      <c r="I22">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J22">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.17143466666666</v>
+      </c>
+      <c r="N22">
+        <v>42.514304</v>
+      </c>
+      <c r="O22">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="P22">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="Q22">
+        <v>5.73404117101511</v>
+      </c>
+      <c r="R22">
+        <v>51.60637053913599</v>
+      </c>
+      <c r="S22">
+        <v>0.001371741446820381</v>
+      </c>
+      <c r="T22">
+        <v>0.00137174144682038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.213859</v>
+      </c>
+      <c r="I23">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J23">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>15.94503</v>
+      </c>
+      <c r="N23">
+        <v>47.83509</v>
+      </c>
+      <c r="O23">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="P23">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="Q23">
+        <v>6.45167272359</v>
+      </c>
+      <c r="R23">
+        <v>58.06505451231</v>
+      </c>
+      <c r="S23">
+        <v>0.001543418788306711</v>
+      </c>
+      <c r="T23">
+        <v>0.00154341878830671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.213859</v>
+      </c>
+      <c r="I24">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J24">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>28.53112133333333</v>
+      </c>
+      <c r="N24">
+        <v>85.59336400000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="P24">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="Q24">
+        <v>11.54425280351956</v>
+      </c>
+      <c r="R24">
+        <v>103.898275231676</v>
+      </c>
+      <c r="S24">
+        <v>0.002761704977496128</v>
+      </c>
+      <c r="T24">
+        <v>0.002761704977496127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.213859</v>
+      </c>
+      <c r="I25">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J25">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N25">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P25">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q25">
+        <v>13.29515215773555</v>
+      </c>
+      <c r="R25">
+        <v>119.65636941962</v>
+      </c>
+      <c r="S25">
+        <v>0.003180568592485473</v>
+      </c>
+      <c r="T25">
+        <v>0.003180568592485471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.210735</v>
+      </c>
+      <c r="I26">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J26">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>45.13108133333333</v>
+      </c>
+      <c r="N26">
+        <v>135.393244</v>
+      </c>
+      <c r="O26">
+        <v>0.3170330137447531</v>
+      </c>
+      <c r="P26">
+        <v>0.317033013744753</v>
+      </c>
+      <c r="Q26">
+        <v>18.21392658603778</v>
+      </c>
+      <c r="R26">
+        <v>163.92533927434</v>
+      </c>
+      <c r="S26">
+        <v>0.00435727565642654</v>
+      </c>
+      <c r="T26">
+        <v>0.004357275656426538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.210735</v>
+      </c>
+      <c r="I27">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J27">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.717455666666666</v>
+      </c>
+      <c r="N27">
+        <v>17.152367</v>
+      </c>
+      <c r="O27">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="P27">
+        <v>0.04016350035062346</v>
+      </c>
+      <c r="Q27">
+        <v>2.307441228860556</v>
+      </c>
+      <c r="R27">
+        <v>20.766971059745</v>
+      </c>
+      <c r="S27">
+        <v>0.0005520038442922152</v>
+      </c>
+      <c r="T27">
+        <v>0.000552003844292215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.210735</v>
+      </c>
+      <c r="I28">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J28">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.17143466666666</v>
+      </c>
+      <c r="N28">
+        <v>42.514304</v>
+      </c>
+      <c r="O28">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="P28">
+        <v>0.09955029901182223</v>
+      </c>
+      <c r="Q28">
+        <v>5.719283983715555</v>
+      </c>
+      <c r="R28">
+        <v>51.47355585344</v>
+      </c>
+      <c r="S28">
+        <v>0.001368211118932326</v>
+      </c>
+      <c r="T28">
+        <v>0.001368211118932326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.219071913067304</v>
-      </c>
-      <c r="H19">
-        <v>0.219071913067304</v>
-      </c>
-      <c r="I19">
-        <v>0.008703724621427354</v>
-      </c>
-      <c r="J19">
-        <v>0.008703724621427354</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>27.9491093602959</v>
-      </c>
-      <c r="N19">
-        <v>27.9491093602959</v>
-      </c>
-      <c r="O19">
-        <v>0.2242824331311975</v>
-      </c>
-      <c r="P19">
-        <v>0.2242824331311975</v>
-      </c>
-      <c r="Q19">
-        <v>6.122864856087316</v>
-      </c>
-      <c r="R19">
-        <v>6.122864856087316</v>
-      </c>
-      <c r="S19">
-        <v>0.001952092535397638</v>
-      </c>
-      <c r="T19">
-        <v>0.001952092535397638</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.210735</v>
+      </c>
+      <c r="I29">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J29">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>15.94503</v>
+      </c>
+      <c r="N29">
+        <v>47.83509</v>
+      </c>
+      <c r="O29">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="P29">
+        <v>0.1120093019224172</v>
+      </c>
+      <c r="Q29">
+        <v>6.435068632350001</v>
+      </c>
+      <c r="R29">
+        <v>57.91561769115</v>
+      </c>
+      <c r="S29">
+        <v>0.001539446629847887</v>
+      </c>
+      <c r="T29">
+        <v>0.001539446629847886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.210735</v>
+      </c>
+      <c r="I30">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J30">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>28.53112133333333</v>
+      </c>
+      <c r="N30">
+        <v>85.59336400000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="P30">
+        <v>0.2004230147958612</v>
+      </c>
+      <c r="Q30">
+        <v>11.51454239583778</v>
+      </c>
+      <c r="R30">
+        <v>103.63088156254</v>
+      </c>
+      <c r="S30">
+        <v>0.002754597425177697</v>
+      </c>
+      <c r="T30">
+        <v>0.002754597425177697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.210735</v>
+      </c>
+      <c r="I31">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J31">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>32.85839333333333</v>
+      </c>
+      <c r="N31">
+        <v>98.57517999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="P31">
+        <v>0.2308208701745229</v>
+      </c>
+      <c r="Q31">
+        <v>13.26093561747778</v>
+      </c>
+      <c r="R31">
+        <v>119.3484205573</v>
+      </c>
+      <c r="S31">
+        <v>0.003172383048461888</v>
+      </c>
+      <c r="T31">
+        <v>0.003172383048461887</v>
       </c>
     </row>
   </sheetData>
